--- a/DemoProjectInitialUpload.xlsx
+++ b/DemoProjectInitialUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dyaqub/git/kobo-transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBBD15-DD59-9D4B-BF8F-B890EBAAC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB1BEC5-D48F-F049-B22D-9D9ABE6B956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="15160" windowHeight="16440" xr2:uid="{4901C8AA-6793-F245-8C5C-0A4BEC04154D}"/>
   </bookViews>
@@ -110,10 +110,10 @@
     <t>blueberries1234.jpg</t>
   </si>
   <si>
-    <t>lots of strawberries.jpg</t>
-  </si>
-  <si>
     <t>watermelonpic.jpg</t>
+  </si>
+  <si>
+    <t>lotsofstrawberries.jpg</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
